--- a/src/trackAR/availity/RCM_Claim_Report.xlsx
+++ b/src/trackAR/availity/RCM_Claim_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>Received Date</t>
   </si>
@@ -38,16 +38,16 @@
     <t>Check Amount</t>
   </si>
   <si>
-    <t>07/24/2025</t>
-  </si>
-  <si>
-    <t>Y205MPEC1801</t>
+    <t>11/21/2024</t>
+  </si>
+  <si>
+    <t>X326MPE95578</t>
   </si>
   <si>
     <t>DENIED</t>
   </si>
   <si>
-    <t>502.00</t>
+    <t>378.00</t>
   </si>
   <si>
     <t>0.00</t>
@@ -56,7 +56,7 @@
     <t>--</t>
   </si>
   <si>
-    <t>07/31/2025</t>
+    <t>12/02/2025</t>
   </si>
   <si>
     <t>Claim Billed Amount</t>
@@ -104,38 +104,51 @@
     <t>Patient Responsibility</t>
   </si>
   <si>
+    <t>PAID</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>345.00</t>
-  </si>
-  <si>
-    <t>99223</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>R7612, O82, Z3490</t>
-  </si>
-  <si>
-    <t>16, M64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 - Claim/service lacks information or has submission/billing error(s).
-M64 - Missing/incomplete/invalid other diagnosis.</t>
-  </si>
-  <si>
-    <t>25874</t>
-  </si>
-  <si>
-    <t>157.00</t>
-  </si>
-  <si>
-    <t>99232</t>
-  </si>
-  <si>
-    <t>25875</t>
+    <t>93306</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>45, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Co-payment Amount
+45 - Charge exceeds fee schedule/maximum allowable or contracted/legislated fee arrangement.</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-378.00</t>
+  </si>
+  <si>
+    <t>-35.00</t>
+  </si>
+  <si>
+    <t>96, N10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96 - Non-covered charge(s).
+N10 - Adjustment based on the findings of a review organization/professional consult/manual adjudication/medical advisor/dental advisor/peer review.</t>
   </si>
 </sst>
 </file>
@@ -581,7 +594,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -673,16 +686,16 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>115.9</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
@@ -703,13 +716,13 @@
         <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
         <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
         <v>12</v>
@@ -735,19 +748,19 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-115.9</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
@@ -762,7 +775,7 @@
         <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="P3" t="s">
         <v>14</v>
@@ -771,12 +784,74 @@
         <v>12</v>
       </c>
       <c r="R3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
         <v>12</v>
       </c>
       <c r="T3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
         <v>12</v>
       </c>
     </row>
